--- a/Tri 2/ECEN 204/lab2.xlsx
+++ b/Tri 2/ECEN 204/lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\Desktop\Uni-Notes\Tri 2\ECEN 204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1336096C-0EC5-4833-A1F1-55B6EDF360CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62A330-5532-4DCC-8F49-6A5A88F520CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="2130" windowWidth="38700" windowHeight="15555" xr2:uid="{78B7B2BA-CD77-454F-A3B4-03CB94333478}"/>
+    <workbookView xWindow="15645" yWindow="2640" windowWidth="38700" windowHeight="15555" xr2:uid="{78B7B2BA-CD77-454F-A3B4-03CB94333478}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,11 +144,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -162,14 +173,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,48 +1303,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$H$40</c:f>
+              <c:f>Sheet1!$H$36:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$36:$I$40</c:f>
+              <c:f>Sheet1!$I$36:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>-1.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.724</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,6 +1714,487 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> vs Current</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Load Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$8:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$8:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.127E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4885-48E6-9E19-F8A803F78882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Voltage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$8:$AD$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$8:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4885-48E6-9E19-F8A803F78882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494692928"/>
+        <c:axId val="486922656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494692928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486922656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486922656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494692928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1747,6 +2275,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2264,6 +2832,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2819,16 +3903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2848,6 +3932,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FD67C8-D86F-4EE1-A263-88FF77F63FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3153,34 +4273,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9972A145-B38E-4036-9F3C-6B504F475B3D}">
-  <dimension ref="B4:K45"/>
+  <dimension ref="B4:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="4" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -3188,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>0.16800000000000001</v>
       </c>
@@ -3208,7 +4328,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>0.24099999999999999</v>
       </c>
@@ -3227,8 +4347,20 @@
       <c r="K8" s="4">
         <v>0.01</v>
       </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2.127E-3</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>3.0000000000000001E-6</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>0.311</v>
       </c>
@@ -3247,8 +4379,20 @@
       <c r="K9" s="4">
         <v>0.03</v>
       </c>
+      <c r="AB9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>0.35299999999999998</v>
       </c>
@@ -3267,8 +4411,14 @@
       <c r="K10" s="4">
         <v>0.06</v>
       </c>
+      <c r="AD10" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>0.38500000000000001</v>
       </c>
@@ -3287,8 +4437,14 @@
       <c r="K11" s="4">
         <v>0.1</v>
       </c>
+      <c r="AD11" s="3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>6.0000000000000002E-5</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>0.44900000000000001</v>
       </c>
@@ -3307,8 +4463,14 @@
       <c r="K12" s="4">
         <v>0.3</v>
       </c>
+      <c r="AD12" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>1E-4</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>0.51800000000000002</v>
       </c>
@@ -3327,8 +4489,14 @@
       <c r="K13" s="4">
         <v>1</v>
       </c>
+      <c r="AD13" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>0.55800000000000005</v>
       </c>
@@ -3347,8 +4515,14 @@
       <c r="K14" s="4">
         <v>2</v>
       </c>
+      <c r="AD14" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>0.58299999999999996</v>
       </c>
@@ -3367,8 +4541,14 @@
       <c r="K15" s="4">
         <v>3</v>
       </c>
+      <c r="AD15" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>0.627</v>
       </c>
@@ -3386,20 +4566,34 @@
       </c>
       <c r="K16" s="4">
         <v>6</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="30:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD17" s="3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -3443,10 +4637,10 @@
         <v>-0.2</v>
       </c>
       <c r="H37" s="3">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I37" s="3">
-        <v>-1</v>
+        <v>-0.47199999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3463,10 +4657,10 @@
         <v>-0.3</v>
       </c>
       <c r="H38" s="3">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="I38" s="3">
-        <v>-1.9</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3483,10 +4677,10 @@
         <v>-0.4</v>
       </c>
       <c r="H39" s="3">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="I39" s="3">
-        <v>-2.8</v>
+        <v>-0.83199999999999996</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,10 +4697,10 @@
         <v>-0.5</v>
       </c>
       <c r="H40" s="3">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="I40" s="3">
-        <v>-3.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3522,6 +4716,12 @@
       <c r="F41" s="4">
         <v>-0.6</v>
       </c>
+      <c r="H41" s="3">
+        <v>-6</v>
+      </c>
+      <c r="I41" s="3">
+        <v>-1.1890000000000001</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
@@ -3536,6 +4736,12 @@
       <c r="F42" s="4">
         <v>-0.7</v>
       </c>
+      <c r="H42" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I42" s="3">
+        <v>-1.367</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
@@ -3550,6 +4756,12 @@
       <c r="F43" s="4">
         <v>-0.8</v>
       </c>
+      <c r="H43" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>-1.5469999999999999</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -3564,6 +4776,12 @@
       <c r="F44" s="4">
         <v>-0.9</v>
       </c>
+      <c r="H44" s="9">
+        <v>-9</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-1.724</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
@@ -3577,6 +4795,12 @@
       </c>
       <c r="F45" s="4">
         <v>-1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I45" s="3">
+        <v>-1.9</v>
       </c>
     </row>
   </sheetData>
